--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -32,131 +32,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1: Use raw data from HST cameras
-0: make an auroral phantom using “TrueArc” parameters below</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Factor of downsampling in energy space</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>[nm] for plotting only</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>none
-bg3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>1: use dahlgren 2013 eigenprofiles
-0: use locally computed Transcar profiles</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Arbitrary: just spread angles across pixels linearly
-Astrometry: calibrated pixels to skymap</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>transcar
-arb</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A58" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>ArbChapman: User-placed chapman arc(s)
-SmartChapman: two-step JLS algorithm (not yet implemented)
-backproj: using simple inv(L)*d
-tsvd: truncated SVD</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A63" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>LineLength: To be consistent with definition of Rayleighs</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F11" authorId="0">
       <text>
         <r>
@@ -816,7 +691,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1021,6 +896,14 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1112,7 +995,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1724,7 +1607,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4576,15 +4459,15 @@
       <c r="IP11" s="0"/>
       <c r="IQ11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="4" t="n">
-        <f aca="false">1/9</f>
-        <v>0.111111111111111</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="51" t="n">
+        <f aca="false">1/12</f>
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C12" s="52" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0"/>
@@ -6176,20 +6059,20 @@
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="52" t="n">
+      <c r="B24" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C24" s="52" t="n">
+      <c r="C24" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="53" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="41" t="n">
@@ -6200,7 +6083,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="53" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="41" t="n">

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t xml:space="preserve">Sim</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">2013-04-14T8-54_hst1.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~/Dropbox/aurora_data/StudyEvents/2013-04-14/DASC/raw</t>
   </si>
   <si>
     <t xml:space="preserve">plotMinVal</t>
@@ -691,7 +694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,14 +899,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1000,13 +995,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.93367346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,15 +1602,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="26.3520408163265"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="41" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.53061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="23.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.25"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,7 +1622,9 @@
       <c r="C1" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="0"/>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -1885,7 +1883,9 @@
       <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -3439,7 +3439,9 @@
       <c r="C8" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="0"/>
+      <c r="D8" s="0" t="s">
+        <v>83</v>
+      </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
@@ -3943,7 +3945,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B10" s="49" t="n">
         <v>10</v>
@@ -4202,7 +4204,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="49" t="n">
         <v>35000</v>
@@ -4461,13 +4463,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="51" t="n">
+        <v>86</v>
+      </c>
+      <c r="B12" s="4" t="n">
         <f aca="false">1/12</f>
         <v>0.0833333333333333</v>
       </c>
-      <c r="C12" s="52" t="n">
+      <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0"/>
@@ -4721,7 +4723,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4976,7 +4978,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1750</v>
@@ -5488,7 +5490,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>15</v>
@@ -5747,7 +5749,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
@@ -6011,7 +6013,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>77.51</v>
@@ -6022,7 +6024,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>19.92</v>
@@ -6033,24 +6035,24 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,21 +6061,21 @@
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="54" t="n">
+      <c r="A24" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C24" s="54" t="n">
+      <c r="C24" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="53" t="s">
-        <v>98</v>
+      <c r="A25" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="B25" s="41" t="n">
         <v>1</v>
@@ -6083,8 +6085,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="53" t="s">
-        <v>99</v>
+      <c r="A26" s="51" t="s">
+        <v>100</v>
       </c>
       <c r="B26" s="41" t="n">
         <v>200</v>

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t xml:space="preserve">Sim</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">lineLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASI</t>
   </si>
   <si>
     <t xml:space="preserve">useCam</t>
@@ -1602,7 +1605,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1622,8 +1625,8 @@
       <c r="C1" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="n">
-        <v>2</v>
+      <c r="D1" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
@@ -1875,7 +1878,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2136,7 +2139,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>512</v>
@@ -2395,7 +2398,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="44" t="n">
         <v>90</v>
@@ -2654,7 +2657,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="44" t="n">
         <v>9</v>
@@ -2913,7 +2916,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1500</v>
@@ -3172,7 +3175,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>-0.188679245283019</v>
@@ -3431,16 +3434,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="49" t="n">
         <v>10</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="49" t="n">
         <v>35000</v>
@@ -4463,7 +4466,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="n">
         <f aca="false">1/12</f>
@@ -4723,7 +4726,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4978,7 +4981,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1750</v>
@@ -5490,7 +5493,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>15</v>
@@ -5749,7 +5752,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
@@ -6013,7 +6016,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>77.51</v>
@@ -6024,7 +6027,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>19.92</v>
@@ -6035,24 +6038,24 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,7 +6065,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B24" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -6075,7 +6078,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B25" s="41" t="n">
         <v>1</v>
@@ -6086,7 +6089,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="41" t="n">
         <v>200</v>

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -268,13 +268,13 @@
     <t xml:space="preserve">reqStartUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:30.500Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:28Z</t>
   </si>
   <si>
     <t xml:space="preserve">reqStopUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:30.800Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:35Z</t>
   </si>
   <si>
     <t xml:space="preserve">UseTCz</t>
@@ -697,7 +697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -902,6 +902,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -991,20 +995,20 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.93367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,16 +1609,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.25"/>
-    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3956,7 +3960,9 @@
       <c r="C10" s="50" t="n">
         <v>1000</v>
       </c>
-      <c r="D10" s="0"/>
+      <c r="D10" s="0" t="n">
+        <v>300</v>
+      </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
       <c r="G10" s="0"/>
@@ -4210,12 +4216,15 @@
         <v>86</v>
       </c>
       <c r="B11" s="49" t="n">
-        <v>35000</v>
-      </c>
-      <c r="C11" s="50" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>50000</v>
+      </c>
+      <c r="C11" s="51" t="n">
+        <f aca="false">B11*B12</f>
+        <v>4166.66666666667</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1000</v>
+      </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -6064,20 +6073,20 @@
       <c r="C23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="52" t="n">
+      <c r="B24" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C24" s="52" t="n">
+      <c r="C24" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>100</v>
       </c>
       <c r="B25" s="41" t="n">
@@ -6088,7 +6097,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="52" t="s">
         <v>101</v>
       </c>
       <c r="B26" s="41" t="n">

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -98,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0">
+    <comment ref="A27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t xml:space="preserve">Sim</t>
   </si>
@@ -268,13 +268,13 @@
     <t xml:space="preserve">reqStartUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:28Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:30.500Z</t>
   </si>
   <si>
     <t xml:space="preserve">reqStopUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:35Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:30.800Z</t>
   </si>
   <si>
     <t xml:space="preserve">UseTCz</t>
@@ -413,6 +413,18 @@
   </si>
   <si>
     <t xml:space="preserve">hst1cal.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azcalfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dascutils/cal/PKR_DASC_20110112_AZ_10deg.fits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elcalfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../dascutils/cal/PKR_DASC_20110112_EL_10deg.fits</t>
   </si>
   <si>
     <t xml:space="preserve">pixarea_sqcm</t>
@@ -995,20 +1007,20 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.93367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,21 +1616,21 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IQ26"/>
+  <dimension ref="A1:IQ28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.6836734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="23.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.25"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,7 +3973,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4219,11 +4231,11 @@
         <v>50000</v>
       </c>
       <c r="C11" s="51" t="n">
-        <f aca="false">B11*B12</f>
+        <f aca="false">B12*B11</f>
         <v>4166.66666666667</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="0"/>
       <c r="F11" s="0"/>
@@ -6068,42 +6080,62 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0"/>
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
+      <c r="A23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="41" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="53" t="n">
+      <c r="A24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C24" s="53" t="n">
+      <c r="C26" s="53" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="41" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="41" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="41" t="n">
+      <c r="C27" s="41" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="41" t="n">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="41" t="n">
         <v>200</v>
       </c>
-      <c r="C26" s="41" t="n">
+      <c r="C28" s="41" t="n">
         <v>200</v>
       </c>
     </row>

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -268,13 +268,13 @@
     <t xml:space="preserve">reqStartUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:30.500Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:20Z</t>
   </si>
   <si>
     <t xml:space="preserve">reqStopUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:30.800Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:40Z</t>
   </si>
   <si>
     <t xml:space="preserve">UseTCz</t>
@@ -709,7 +709,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -914,10 +914,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1006,21 +1002,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.93367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.26530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.77551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,19 +1614,19 @@
   </sheetPr>
   <dimension ref="A1:IQ28"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.6836734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.25"/>
-    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3973,7 +3969,7 @@
         <v>1000</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4230,7 +4226,7 @@
       <c r="B11" s="49" t="n">
         <v>50000</v>
       </c>
-      <c r="C11" s="51" t="n">
+      <c r="C11" s="48" t="n">
         <f aca="false">B12*B11</f>
         <v>4166.66666666667</v>
       </c>
@@ -6034,6 +6030,7 @@
       <c r="A18" s="0"/>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
@@ -6045,6 +6042,7 @@
       <c r="C19" s="4" t="n">
         <v>77.5</v>
       </c>
+      <c r="D19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
@@ -6056,6 +6054,7 @@
       <c r="C20" s="4" t="n">
         <v>19.9</v>
       </c>
+      <c r="D20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
@@ -6067,6 +6066,7 @@
       <c r="C21" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
@@ -6078,6 +6078,7 @@
       <c r="C22" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
@@ -6105,20 +6106,20 @@
       <c r="C25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="53" t="n">
+      <c r="B26" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C26" s="53" t="n">
+      <c r="C26" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="51" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="41" t="n">
@@ -6129,7 +6130,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="51" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="41" t="n">

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F11" authorId="0">
+    <comment ref="F12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t xml:space="preserve">Sim</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">~/data/2013-04-14/HST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fovfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/fovhstdasc.h5</t>
   </si>
   <si>
     <t xml:space="preserve">BG3transFN</t>
@@ -1000,23 +1006,22 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.20918367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1072,21 +1077,21 @@
       </c>
       <c r="F5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="0"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
       <c r="F6" s="0"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="7"/>
@@ -1103,31 +1108,31 @@
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="13"/>
+      <c r="C9" s="7"/>
       <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="0"/>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="13"/>
-      <c r="F10" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="F10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="0"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="13"/>
       <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1136,49 +1141,49 @@
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>10</v>
-      </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="5"/>
-      <c r="F12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="F13" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="F14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="5"/>
+      <c r="F14" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="0"/>
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="C15" s="7"/>
       <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="F16" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="F16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
@@ -1201,69 +1206,69 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="0"/>
       <c r="C19" s="7"/>
-      <c r="F19" s="1" t="n">
-        <v>0</v>
+      <c r="F19" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
+      <c r="A20" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="F20" s="0"/>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="19" t="n">
-        <v>200</v>
-      </c>
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7"/>
       <c r="F21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="19" t="n">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="C22" s="7"/>
       <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0"/>
-      <c r="C23" s="0"/>
+      <c r="A23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="19" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="7"/>
-      <c r="F24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="7"/>
-      <c r="F25" s="0" t="n">
-        <v>1</v>
+      <c r="F25" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
@@ -1273,7 +1278,7 @@
     </row>
     <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
@@ -1283,7 +1288,7 @@
     </row>
     <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
@@ -1293,7 +1298,7 @@
     </row>
     <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
@@ -1303,7 +1308,7 @@
     </row>
     <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
@@ -1312,58 +1317,58 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="F31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4"/>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="F32" s="23" t="n">
+      <c r="F32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="7"/>
+      <c r="F33" s="23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="F33" s="24"/>
-    </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="F34" s="0"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="0"/>
-      <c r="C35" s="26" t="s">
-        <v>48</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
       <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="25" t="s">
+        <v>49</v>
+      </c>
       <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
+      <c r="C36" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="B37" s="0"/>
-      <c r="C37" s="27" t="s">
-        <v>50</v>
-      </c>
+      <c r="C37" s="0"/>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1371,228 +1376,238 @@
         <v>51</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="27" t="s">
         <v>52</v>
       </c>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="B39" s="0"/>
-      <c r="C39" s="0"/>
+      <c r="C39" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29" t="s">
-        <v>53</v>
-      </c>
+      <c r="A40" s="4"/>
       <c r="B40" s="0"/>
-      <c r="C40" s="13"/>
-      <c r="F40" s="15" t="n">
+      <c r="C40" s="0"/>
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="0"/>
+      <c r="C41" s="13"/>
+      <c r="F41" s="15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="31" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
+      <c r="D42" s="31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E42" s="32"/>
       <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="0"/>
-      <c r="D43" s="33" t="n">
-        <v>-5</v>
-      </c>
+      <c r="D43" s="33"/>
       <c r="E43" s="34"/>
       <c r="F43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
       <c r="D44" s="33" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E44" s="34"/>
       <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
       <c r="D45" s="33" t="n">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E45" s="34"/>
       <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="36"/>
+      <c r="D46" s="33" t="n">
+        <v>89</v>
+      </c>
+      <c r="E46" s="34"/>
       <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+      <c r="A47" s="30" t="s">
+        <v>61</v>
+      </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="D47" s="35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E47" s="36"/>
+      <c r="F47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="A48" s="4"/>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="15"/>
+      <c r="E48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="15"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="7"/>
-      <c r="E50" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="A50" s="4"/>
+      <c r="B50" s="0"/>
+      <c r="C50" s="0"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="0"/>
-      <c r="C51" s="0"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="37" t="n">
-        <v>7</v>
+      <c r="B51" s="18"/>
+      <c r="C51" s="7"/>
+      <c r="E51" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5" t="n">
-        <v>0</v>
+      <c r="E52" s="37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" s="0"/>
       <c r="C53" s="0"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="0"/>
+      <c r="C54" s="0"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="38"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-    </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0"/>
       <c r="C56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>71</v>
-      </c>
+      <c r="A61" s="4"/>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="E61" s="40"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="5"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1622,11 +1637,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
@@ -1890,7 +1905,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2151,7 +2166,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>512</v>
@@ -2410,7 +2425,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" s="44" t="n">
         <v>90</v>
@@ -2669,7 +2684,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" s="44" t="n">
         <v>9</v>
@@ -2928,7 +2943,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>1500</v>
@@ -3187,7 +3202,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="46" t="n">
         <v>-0.188679245283019</v>
@@ -3446,16 +3461,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
@@ -3960,7 +3975,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B10" s="49" t="n">
         <v>10</v>
@@ -4221,7 +4236,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="49" t="n">
         <v>50000</v>
@@ -4483,7 +4498,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="n">
         <f aca="false">1/12</f>
@@ -4743,7 +4758,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="0"/>
@@ -4998,7 +5013,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1750</v>
@@ -5510,7 +5525,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>15</v>
@@ -5769,7 +5784,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>2</v>
@@ -6034,7 +6049,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>77.51</v>
@@ -6046,7 +6061,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>19.92</v>
@@ -6058,46 +6073,46 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="41" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="41" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6107,7 +6122,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="51" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B26" s="52" t="n">
         <f aca="false">(0.0016)^2</f>
@@ -6120,7 +6135,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B27" s="41" t="n">
         <v>1</v>
@@ -6131,7 +6146,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B28" s="41" t="n">
         <v>200</v>

--- a/in/apr14T085430.xlsx
+++ b/in/apr14T085430.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -274,13 +274,13 @@
     <t xml:space="preserve">reqStartUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:20Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:27.95Z</t>
   </si>
   <si>
     <t xml:space="preserve">reqStopUT</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-04-14T08:54:40Z</t>
+    <t xml:space="preserve">2013-04-14T08:54:27.97Z</t>
   </si>
   <si>
     <t xml:space="preserve">UseTCz</t>
@@ -1009,19 +1009,19 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.44897959183673"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1637,11 +1637,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="251" min="5" style="41" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
